--- a/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
+++ b/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\US States\eps-california\InputData\indst\BPEiC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11446049-6A73-4EC0-AD94-F618DCB02ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F97DB-5F49-4E54-97FA-DF2F134108A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3270" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3270" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
   <si>
     <t>BPEiC BAU Process Emissions in CO2e</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Cement</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
   </si>
   <si>
     <t>Total</t>
@@ -320,28 +317,7 @@
     <t>Semiconductor Manufacturing</t>
   </si>
   <si>
-    <t>Total HGWP Emissions</t>
-  </si>
-  <si>
-    <t>Increase in 2030</t>
-  </si>
-  <si>
-    <t>Increase in 2050</t>
-  </si>
-  <si>
-    <t>Following E3's approach, F-gases increase by 56% in 2030 and 72% in 2050.</t>
-  </si>
-  <si>
     <t>California-specific process emissions data take the most recent CARB values and hold them constant through all years.</t>
-  </si>
-  <si>
-    <t>Starting F-Gas Emissions</t>
-  </si>
-  <si>
-    <t>F-Gas Emissions, 2030-2049</t>
-  </si>
-  <si>
-    <t>F-Gas Emissions, 2050</t>
   </si>
   <si>
     <t>CA Carbon Dioxide Process Emissions</t>
@@ -389,7 +365,73 @@
     <t>Waste Management</t>
   </si>
   <si>
-    <t>Other Industries</t>
+    <t>2030 F-gases</t>
+  </si>
+  <si>
+    <t>Estimations using online pixel ruler:</t>
+  </si>
+  <si>
+    <t>2050 F-gases</t>
+  </si>
+  <si>
+    <t>MMT CO2e</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Historic CARB Data</t>
+  </si>
+  <si>
+    <t>Future Year Projections</t>
+  </si>
+  <si>
+    <t>Leading Coefficient</t>
+  </si>
+  <si>
+    <t>Second Coefficient</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>ODS Trend Estimation</t>
+  </si>
+  <si>
+    <t>Electricity Grid SF6 Losses Trend Estimation</t>
+  </si>
+  <si>
+    <t>Semiconductor Manufacturing Trend Estimation</t>
+  </si>
+  <si>
+    <t>E3 F-gas Estimates:</t>
+  </si>
+  <si>
+    <t>Energy and Environmental Economics, Inc. (E3)</t>
+  </si>
+  <si>
+    <t>https://www.ethree.com/wp-content/uploads/2018/06/Deep_Decarbonization_in_a_High_Renewables_Future_CEC-500-2018-012-1.pdf</t>
+  </si>
+  <si>
+    <t>Deep Decarbonization in a High Renewables Future: Updated Results from the California PATHWAYS Model</t>
+  </si>
+  <si>
+    <t>Figure 21</t>
+  </si>
+  <si>
+    <t>F-gases are estimated based on historic CARB data and E3's reference scenario projections for 2030 and 2050.</t>
+  </si>
+  <si>
+    <t>E3 Estimates for Trend Calibration</t>
+  </si>
+  <si>
+    <t>Trend Estimation and Calibration</t>
+  </si>
+  <si>
+    <t>Non-ODS Total</t>
   </si>
 </sst>
 </file>
@@ -397,11 +439,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,12 +502,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -531,7 +567,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +595,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,15 +649,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,7 +670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,7 +678,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,40 +693,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -687,14 +733,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{60BBA27D-D5CB-4A09-ACBD-31DAEE0084AF}"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{60BBA27D-D5CB-4A09-ACBD-31DAEE0084AF}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{B3696BAA-2AA5-495A-80C1-6ADA7AD0FD0B}"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="4" xr:uid="{5B434292-35D3-4319-8B2C-6AA0EC49CD00}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B3696BAA-2AA5-495A-80C1-6ADA7AD0FD0B}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{5B434292-35D3-4319-8B2C-6AA0EC49CD00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,8 +763,3697 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ODS Trend</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Estimation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12343587086987803"/>
+                  <c:y val="-5.2581149229865627E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CARB 2020_F-gases'!$B$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CARB 2020_F-gases'!$B$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F16-4D1E-A72E-FF7C7BA3B9C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="796472912"/>
+        <c:axId val="687295888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="796472912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687295888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="687295888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796472912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Electricity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Grid SF6 Losses Trend Estimation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1606270983721681E-2"/>
+                  <c:y val="-0.52592955419735188"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:srgbClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CARB 2020_F-gases'!$B$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CARB 2020_F-gases'!$B$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D982-4B87-A389-1F8203705CC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="829059936"/>
+        <c:axId val="687302960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="829059936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687302960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="687302960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829059936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Semiconductor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Manufacturing Trend Estimation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1382038772667421E-2"/>
+                  <c:y val="-0.30703931263251388"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:srgbClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CARB 2020_F-gases'!$B$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CARB 2020_F-gases'!$B$10:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B18-4E86-A980-DED75ABCC3BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297019664"/>
+        <c:axId val="687305040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297019664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687305040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="687305040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297019664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>505871</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4258BAED-7CBA-4A39-9CC9-9C618E60F29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2338917"/>
+          <a:ext cx="6568534" cy="3735916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D11A32C-952E-4929-B202-BA4AD5F1B14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4179094" y="8384646"/>
+          <a:ext cx="2070364" cy="9260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332845</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C417440E-0239-4383-8374-CDC6056CD536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5624512" y="2635250"/>
+          <a:ext cx="884238" cy="518583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>35 MMT = 205 px</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560916</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE86BE7-BEA3-4CAD-971B-E995DA84FE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5852583" y="3143250"/>
+          <a:ext cx="793750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>179</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> px = 30.6 MMT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>322262</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7DF6CB-682A-4FF2-87BA-C687E8C858B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2878667" y="3048000"/>
+          <a:ext cx="798512" cy="576262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>160</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> px = 23.4 MMT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>125412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>751417</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55021A1-059D-49A9-869D-BC48151C403C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="4983162"/>
+          <a:ext cx="1308100" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114829</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>77257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>353483</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>46566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449ADFDC-FF35-4417-9BC1-9102E319D286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2824162" y="4575174"/>
+          <a:ext cx="884238" cy="509059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20 MMT = 137 px</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89428</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>178329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C8C9E7-AD05-453E-8804-FF7C9CFE3538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>55958</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384753DA-C4CC-4B42-92E9-F99D896E9495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>55959</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C978FE67-74BD-4076-BD24-7E01140ECC16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -911,9 +4654,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O920"/>
+  <dimension ref="A1:O926"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -928,45 +4671,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="49"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="48"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C3" s="48"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="48"/>
+        <v>75</v>
+      </c>
+      <c r="C4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="47"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>2020</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="47"/>
     </row>
     <row r="7" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="17"/>
       <c r="B7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="C7" s="47"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -982,25 +4725,25 @@
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="48"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="47"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="C10" s="48"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="48"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1017,9 +4760,9 @@
     <row r="12" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="47"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1038,7 +4781,7 @@
       <c r="B13" s="2">
         <v>2020</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1055,9 +4798,9 @@
     <row r="14" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1074,9 +4817,9 @@
     <row r="15" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
       <c r="B15" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="48"/>
+        <v>49</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -1093,9 +4836,9 @@
     <row r="16" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="48"/>
+        <v>41</v>
+      </c>
+      <c r="C16" s="47"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -1112,7 +4855,7 @@
     <row r="17" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="48"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -1129,9 +4872,9 @@
     <row r="18" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="48"/>
+        <v>77</v>
+      </c>
+      <c r="C18" s="47"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -1148,9 +4891,9 @@
     <row r="19" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="C19" s="47"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1169,7 +4912,7 @@
       <c r="B20" s="2">
         <v>2020</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -1186,9 +4929,9 @@
     <row r="21" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
       <c r="B21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="C21" s="47"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -1205,9 +4948,9 @@
     <row r="22" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="48"/>
+        <v>53</v>
+      </c>
+      <c r="C22" s="47"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -1224,9 +4967,9 @@
     <row r="23" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
       <c r="B23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="48"/>
+        <v>41</v>
+      </c>
+      <c r="C23" s="47"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -1243,7 +4986,7 @@
     <row r="24" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="48"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -1260,9 +5003,9 @@
     <row r="25" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="48"/>
+        <v>78</v>
+      </c>
+      <c r="C25" s="47"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -1279,9 +5022,9 @@
     <row r="26" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="B26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="C26" s="47"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -1300,7 +5043,7 @@
       <c r="B27" s="2">
         <v>2020</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1317,9 +5060,9 @@
     <row r="28" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="C28" s="47"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -1336,9 +5079,9 @@
     <row r="29" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="48"/>
+        <v>68</v>
+      </c>
+      <c r="C29" s="47"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -1355,7 +5098,7 @@
     <row r="30" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -1373,7 +5116,7 @@
     </row>
     <row r="31" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -1390,8 +5133,8 @@
     </row>
     <row r="32" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
+      <c r="B32" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -1409,8 +5152,8 @@
     </row>
     <row r="33" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="17"/>
-      <c r="B33" s="11" t="s">
-        <v>36</v>
+      <c r="B33" s="2">
+        <v>2018</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -1428,8 +5171,8 @@
     </row>
     <row r="34" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
-      <c r="B34" s="2">
-        <v>2020</v>
+      <c r="B34" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1447,8 +5190,8 @@
     </row>
     <row r="35" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
-      <c r="B35" s="11" t="s">
-        <v>40</v>
+      <c r="B35" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -1466,8 +5209,8 @@
     </row>
     <row r="36" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="17"/>
-      <c r="B36" s="18" t="s">
-        <v>39</v>
+      <c r="B36" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1485,9 +5228,7 @@
     </row>
     <row r="37" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
-      <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -1504,7 +5245,9 @@
     </row>
     <row r="38" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
@@ -1519,23 +5262,49 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="17"/>
+    <row r="39" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A39" s="17"/>
+      <c r="B39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A40" s="17"/>
+      <c r="B40" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A41" s="17"/>
+      <c r="B41" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
@@ -1550,11 +5319,11 @@
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="17"/>
+    <row r="42" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -1569,11 +5338,11 @@
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="17"/>
+    <row r="43" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -1588,10 +5357,8 @@
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="44" t="s">
-        <v>78</v>
-      </c>
+    <row r="44" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1607,47 +5374,21 @@
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="44"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-    </row>
-    <row r="46" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8">
-        <v>0</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="44" t="s">
-        <v>90</v>
+      <c r="A47" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -1665,8 +5406,8 @@
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="44" t="s">
-        <v>91</v>
+      <c r="A48" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -1684,7 +5425,9 @@
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="44"/>
+      <c r="A49" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -1700,27 +5443,133 @@
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="11" t="s">
+    <row r="50" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+    </row>
+    <row r="51" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="44"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8">
+        <v>0</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+    </row>
+    <row r="53" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+    </row>
+    <row r="54" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="44"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="11" t="s">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2583,7 +6432,16 @@
     <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{FC3473ED-E6B4-42B4-ADFE-F6CCD6D48154}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2596,7 +6454,9 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2610,13 +6470,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2699,11 +6559,11 @@
         <v>0</v>
       </c>
       <c r="D3" s="7">
-        <f>About!$C$46</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
+        <f>About!$C$52</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="58">
+        <f>'CARB 2020_F-gases'!T8*1000000000000</f>
         <v>20150000000000</v>
       </c>
       <c r="F3" s="7">
@@ -2715,8 +6575,8 @@
       <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
+      <c r="I3" s="58">
+        <f>'CARB 2020_F-gases'!T12*1000000000000</f>
         <v>310000000000.00006</v>
       </c>
       <c r="J3" s="11"/>
@@ -2748,12 +6608,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <f t="array" ref="E4:E35">TRANSPOSE('CARB 2020_F-gases'!B17:AG17)*1000000000000</f>
+        <v>20015400000000</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
@@ -2765,8 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <f t="array" ref="I4:I35">TRANSPOSE('CARB 2020_F-gases'!B21:AG21)*1000000000000</f>
+        <v>204999999999.99997</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -2797,12 +6657,11 @@
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>20634700000000</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -2814,8 +6673,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>183900000000</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -2846,12 +6704,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>21234800000000</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -2863,8 +6720,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>162800000000</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2895,12 +6751,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>21815700000000</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -2912,8 +6767,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>141700000000</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -2944,12 +6798,11 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>22377399999999.996</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -2961,8 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>120600000000</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -2993,12 +6845,11 @@
         <v>0</v>
       </c>
       <c r="D9" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E9" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>22919900000000</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -3010,8 +6861,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>115400000000.00002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -3042,12 +6892,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E10" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>23443199999999.996</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -3059,8 +6908,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>114900000000.00002</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -3091,12 +6939,11 @@
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>23947300000000</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -3108,8 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>114400000000.00002</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -3140,12 +6986,11 @@
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>24432200000000</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -3157,8 +7002,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>113900000000.00002</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -3189,12 +7033,11 @@
         <v>0</v>
       </c>
       <c r="D13" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>24897900000000</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -3206,8 +7049,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>113400000000.00002</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -3238,12 +7080,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <f>'CARB 2020_F-gases'!$B$14</f>
-        <v>20150000000000</v>
+        <v>25344400000000</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -3255,8 +7096,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <f>'CARB 2020_F-gases'!$B$21</f>
-        <v>310000000000.00006</v>
+        <v>112900000000.00002</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -3287,12 +7127,11 @@
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>25771700000000</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -3304,8 +7143,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>112400000000.00002</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -3336,12 +7174,11 @@
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>26179800000000</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -3353,8 +7190,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>111900000000.00002</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -3385,12 +7221,11 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>26568700000000</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -3402,8 +7237,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>111400000000.00002</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -3434,12 +7268,11 @@
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>26938399999999.996</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -3451,8 +7284,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>110900000000.00002</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -3483,12 +7315,11 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E19" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>27288900000000</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
@@ -3500,8 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>110400000000.00002</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -3532,12 +7362,11 @@
         <v>0</v>
       </c>
       <c r="D20" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E20" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>27620199999999.996</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -3549,8 +7378,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>109900000000.00002</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -3581,12 +7409,11 @@
         <v>0</v>
       </c>
       <c r="D21" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E21" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>27932300000000</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -3598,8 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>109400000000.00002</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -3630,12 +7456,11 @@
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E22" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>28225199999999.992</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -3647,8 +7472,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>108900000000.00002</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -3679,12 +7503,11 @@
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E23" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>28498900000000</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -3696,8 +7519,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>108400000000.00002</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -3728,12 +7550,11 @@
         <v>0</v>
       </c>
       <c r="D24" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E24" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>28753400000000</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
@@ -3745,8 +7566,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>107900000000.00002</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -3777,12 +7597,11 @@
         <v>0</v>
       </c>
       <c r="D25" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E25" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>28988699999999.996</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
@@ -3794,8 +7613,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>107400000000.00002</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -3826,12 +7644,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E26" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>29204799999999.996</v>
       </c>
       <c r="F26" s="7">
         <v>0</v>
@@ -3843,8 +7660,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>106900000000.00002</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -3875,12 +7691,11 @@
         <v>0</v>
       </c>
       <c r="D27" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E27" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>29401700000000</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
@@ -3892,8 +7707,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>106400000000.00002</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -3924,12 +7738,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>29579400000000</v>
       </c>
       <c r="F28" s="7">
         <v>0</v>
@@ -3941,8 +7754,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>105900000000.00002</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -3973,12 +7785,11 @@
         <v>0</v>
       </c>
       <c r="D29" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E29" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>29737899999999.996</v>
       </c>
       <c r="F29" s="7">
         <v>0</v>
@@ -3990,8 +7801,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>105400000000.00002</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -4022,12 +7832,11 @@
         <v>0</v>
       </c>
       <c r="D30" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E30" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>29877200000000</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
@@ -4039,8 +7848,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>104900000000.00002</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -4071,12 +7879,11 @@
         <v>0</v>
       </c>
       <c r="D31" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E31" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>29997300000000</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
@@ -4088,8 +7895,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>104400000000.00002</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -4120,12 +7926,11 @@
         <v>0</v>
       </c>
       <c r="D32" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E32" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>30098199999999.996</v>
       </c>
       <c r="F32" s="7">
         <v>0</v>
@@ -4137,8 +7942,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>103900000000.00002</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -4169,12 +7973,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E33" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>30179899999999.996</v>
       </c>
       <c r="F33" s="7">
         <v>0</v>
@@ -4186,8 +7989,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>103400000000.00002</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
@@ -4218,12 +8020,11 @@
         <v>0</v>
       </c>
       <c r="D34" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E34" s="7">
-        <f>'CARB 2020_F-gases'!$B$17</f>
-        <v>31434000000000</v>
+        <v>30242400000000</v>
       </c>
       <c r="F34" s="7">
         <v>0</v>
@@ -4235,8 +8036,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <f>'CARB 2020_F-gases'!$B$24</f>
-        <v>483600000000.00012</v>
+        <v>102900000000.00002</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -4267,12 +8067,11 @@
         <v>0</v>
       </c>
       <c r="D35" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E35" s="7">
-        <f>'CARB 2020_F-gases'!B18</f>
-        <v>34658000000000</v>
+        <v>30285700000000.004</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
@@ -4284,8 +8083,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <f>'CARB 2020_F-gases'!B25</f>
-        <v>533200000000.00012</v>
+        <v>102400000000.00002</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -10691,7 +14489,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11">
         <v>2018</v>
@@ -10795,7 +14593,7 @@
     </row>
     <row r="2" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11">
         <f>'CARB 2020_Figure 16'!$C$19</f>
@@ -11935,22 +15733,22 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="50" t="s">
-        <v>37</v>
+      <c r="A2" s="49" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
@@ -11958,15 +15756,15 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="33">
         <v>2000</v>
@@ -12028,10 +15826,10 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="36">
         <v>9.3000000000000007</v>
@@ -12093,10 +15891,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="36">
         <v>9.9</v>
@@ -12158,10 +15956,10 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="36">
         <v>8</v>
@@ -12305,7 +16103,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38">
@@ -12352,7 +16150,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42">
@@ -12387,17 +16185,17 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -12492,7 +16290,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="21">
         <v>5.52</v>
@@ -12554,12 +16352,12 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.14000000000000001</v>
@@ -12621,13 +16419,13 @@
     </row>
     <row r="13" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12689,7 +16487,7 @@
     </row>
     <row r="15" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0.14000000000000001</v>
@@ -12813,7 +16611,7 @@
     </row>
     <row r="17" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B17">
         <v>1.07</v>
@@ -12885,7 +16683,7 @@
     </row>
     <row r="20" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -12948,7 +16746,7 @@
     <row r="21" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
@@ -13034,7 +16832,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="43">
         <f>B11*1000000000000</f>
@@ -13115,7 +16913,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="43">
         <f>SUM(B14:B17)*1000000000000</f>
@@ -13296,17 +17094,17 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
@@ -13373,12 +17171,12 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1.42</v>
@@ -13440,13 +17238,13 @@
     </row>
     <row r="10" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10"/>
     </row>
     <row r="11" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>3.52</v>
@@ -13508,7 +17306,7 @@
     </row>
     <row r="12" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0.09</v>
@@ -13570,7 +17368,7 @@
     </row>
     <row r="13" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>1.19</v>
@@ -13694,7 +17492,7 @@
     </row>
     <row r="15" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>0.01</v>
@@ -13762,7 +17560,7 @@
     </row>
     <row r="18" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>0.7</v>
@@ -13824,7 +17622,7 @@
     </row>
     <row r="19" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>0.03</v>
@@ -13886,11 +17684,11 @@
     </row>
     <row r="21" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B22">
@@ -13952,8 +17750,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="46" t="s">
-        <v>96</v>
+      <c r="A23" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="B23">
         <v>0.09</v>
@@ -14016,12 +17814,12 @@
     <row r="24" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26:S26" si="0">B8*1000000000000</f>
@@ -14102,82 +17900,82 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27">
-        <f>SUM(B11:B15)*1000000000000</f>
+        <f t="shared" ref="B27:T27" si="1">SUM(B11:B15)*1000000000000</f>
         <v>4949999999999.999</v>
       </c>
       <c r="C27">
-        <f>SUM(C11:C15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5000000000000</v>
       </c>
       <c r="D27">
-        <f>SUM(D11:D15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5340000000000</v>
       </c>
       <c r="E27">
-        <f>SUM(E11:E15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5069999999999.999</v>
       </c>
       <c r="F27">
-        <f>SUM(F11:F15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5120000000000</v>
       </c>
       <c r="G27">
-        <f>SUM(G11:G15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5449999999999.999</v>
       </c>
       <c r="H27">
-        <f>SUM(H11:H15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5620000000000</v>
       </c>
       <c r="I27">
-        <f>SUM(I11:I15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5370000000000</v>
       </c>
       <c r="J27">
-        <f>SUM(J11:J15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5370000000000</v>
       </c>
       <c r="K27">
-        <f>SUM(K11:K15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5340000000000</v>
       </c>
       <c r="L27">
-        <f>SUM(L11:L15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5379999999999.999</v>
       </c>
       <c r="M27">
-        <f>SUM(M11:M15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5589999999999.999</v>
       </c>
       <c r="N27">
-        <f>SUM(N11:N15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5510000000000</v>
       </c>
       <c r="O27">
-        <f>SUM(O11:O15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5550000000000</v>
       </c>
       <c r="P27">
-        <f>SUM(P11:P15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5510000000000</v>
       </c>
       <c r="Q27">
-        <f>SUM(Q11:Q15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5560000000000.001</v>
       </c>
       <c r="R27">
-        <f>SUM(R11:R15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5670000000000</v>
       </c>
       <c r="S27">
-        <f>SUM(S11:S15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5700000000000</v>
       </c>
       <c r="T27">
-        <f>SUM(T11:T15)*1000000000000</f>
+        <f t="shared" si="1"/>
         <v>5770000000000</v>
       </c>
     </row>
@@ -14190,71 +17988,71 @@
         <v>730000000000</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:S28" si="1">SUM(C18:C19)*1000000000000</f>
+        <f t="shared" ref="C28:S28" si="2">SUM(C18:C19)*1000000000000</f>
         <v>750000000000</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>780000000000</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>830000000000.00012</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>810000000000</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>880000000000</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>730000000000</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>960000000000</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>740000000000</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>830000000000.00012</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>840000000000.00012</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>880000000000</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>860000000000</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>890000000000</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>810000000000</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700000000000.00012</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>920000000000</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>680000000000</v>
       </c>
       <c r="T28">
@@ -14264,82 +18062,82 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B23)*1000000000000</f>
         <v>7560000000000</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:T29" si="2">SUM(C22:C23)*1000000000000</f>
+        <f t="shared" ref="C29:T29" si="3">SUM(C22:C23)*1000000000000</f>
         <v>7720000000000</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7660000000000</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7760000000000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7750000000000</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7939999999999.999</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8000000000000</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8070000000000</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8240000000000</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8369999999999.999</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8480000000000</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8549999999999.999</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8469999999999.999</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8510000000000.002</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8560000000000.001</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8620000000000.001</v>
       </c>
       <c r="R29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8700000000000.001</v>
       </c>
       <c r="S29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8779999999999.999</v>
       </c>
       <c r="T29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8880000000000</v>
       </c>
     </row>
@@ -14364,17 +18162,17 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
@@ -14441,12 +18239,12 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>0.06</v>
@@ -14508,7 +18306,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>0.67</v>
@@ -14575,7 +18373,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>6.25</v>
@@ -14637,7 +18435,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>0.74</v>
@@ -14699,7 +18497,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <v>0.05</v>
@@ -14761,7 +18559,7 @@
     </row>
     <row r="16" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -14828,7 +18626,7 @@
     </row>
     <row r="18" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>0.04</v>
@@ -14891,12 +18689,12 @@
     <row r="19" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <f>SUM(B8:B9)*1000000000000</f>
@@ -15058,7 +18856,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <f>SUM(B17:B18)*1000000000000</f>
@@ -15150,454 +18948,1422 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="29" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="54"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G6" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I6" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J6" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K6" s="22">
+        <v>2009</v>
+      </c>
+      <c r="L6" s="22">
+        <v>2010</v>
+      </c>
+      <c r="M6" s="22">
+        <v>2011</v>
+      </c>
+      <c r="N6" s="22">
+        <v>2012</v>
+      </c>
+      <c r="O6" s="22">
+        <v>2013</v>
+      </c>
+      <c r="P6" s="22">
+        <v>2014</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>2015</v>
+      </c>
+      <c r="R6" s="22">
+        <v>2016</v>
+      </c>
+      <c r="S6" s="22">
+        <v>2017</v>
+      </c>
+      <c r="T6" s="22">
+        <v>2018</v>
+      </c>
+      <c r="U6" s="50">
+        <v>2030</v>
+      </c>
+      <c r="V6" s="50">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24">
+        <v>3</v>
+      </c>
+      <c r="E7" s="24">
+        <v>4</v>
+      </c>
+      <c r="F7" s="24">
+        <v>5</v>
+      </c>
+      <c r="G7" s="24">
+        <v>6</v>
+      </c>
+      <c r="H7" s="24">
+        <v>7</v>
+      </c>
+      <c r="I7" s="24">
+        <v>8</v>
+      </c>
+      <c r="J7" s="24">
+        <v>9</v>
+      </c>
+      <c r="K7" s="24">
+        <v>10</v>
+      </c>
+      <c r="L7" s="24">
+        <v>11</v>
+      </c>
+      <c r="M7" s="24">
+        <v>12</v>
+      </c>
+      <c r="N7" s="24">
+        <v>13</v>
+      </c>
+      <c r="O7" s="24">
+        <v>14</v>
+      </c>
+      <c r="P7" s="24">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>16</v>
+      </c>
+      <c r="R7" s="24">
+        <v>17</v>
+      </c>
+      <c r="S7" s="24">
+        <v>18</v>
+      </c>
+      <c r="T7" s="24">
+        <v>19</v>
+      </c>
+      <c r="U7" s="24">
+        <f>U6-T6+T7</f>
+        <v>31</v>
+      </c>
+      <c r="V7" s="24">
+        <f>V6-U6+U7</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="24">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="22">
-        <v>2001</v>
-      </c>
-      <c r="D5" s="22">
-        <v>2002</v>
-      </c>
-      <c r="E5" s="22">
-        <v>2003</v>
-      </c>
-      <c r="F5" s="22">
-        <v>2004</v>
-      </c>
-      <c r="G5" s="22">
-        <v>2005</v>
-      </c>
-      <c r="H5" s="22">
-        <v>2006</v>
-      </c>
-      <c r="I5" s="22">
-        <v>2007</v>
-      </c>
-      <c r="J5" s="22">
-        <v>2008</v>
-      </c>
-      <c r="K5" s="22">
-        <v>2009</v>
-      </c>
-      <c r="L5" s="22">
-        <v>2010</v>
-      </c>
-      <c r="M5" s="22">
-        <v>2011</v>
-      </c>
-      <c r="N5" s="22">
-        <v>2012</v>
-      </c>
-      <c r="O5" s="22">
-        <v>2013</v>
-      </c>
-      <c r="P5" s="22">
-        <v>2014</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>2015</v>
-      </c>
-      <c r="R5" s="22">
-        <v>2016</v>
-      </c>
-      <c r="S5" s="22">
-        <v>2017</v>
-      </c>
-      <c r="T5" s="22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>5.57</v>
+      </c>
+      <c r="C8">
+        <v>6.01</v>
+      </c>
+      <c r="D8">
+        <v>6.52</v>
+      </c>
+      <c r="E8">
+        <v>7.2</v>
+      </c>
+      <c r="F8">
+        <v>7.95</v>
+      </c>
+      <c r="G8">
+        <v>8.75</v>
+      </c>
+      <c r="H8">
+        <v>9.64</v>
+      </c>
+      <c r="I8">
+        <v>10.43</v>
+      </c>
+      <c r="J8">
+        <v>11.27</v>
+      </c>
+      <c r="K8">
+        <v>11.96</v>
+      </c>
+      <c r="L8">
+        <v>13.2</v>
+      </c>
+      <c r="M8">
+        <v>14.21</v>
+      </c>
+      <c r="N8">
+        <v>15.25</v>
+      </c>
+      <c r="O8">
+        <v>16.38</v>
+      </c>
+      <c r="P8">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>18.32</v>
+      </c>
+      <c r="R8">
+        <v>19</v>
+      </c>
+      <c r="S8">
+        <v>19.64</v>
+      </c>
+      <c r="T8">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="U8" s="51">
+        <f>B70</f>
+        <v>23.4</v>
+      </c>
+      <c r="V8" s="51">
+        <f>B71</f>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>72</v>
       </c>
-      <c r="B7">
-        <v>5.57</v>
-      </c>
-      <c r="C7">
-        <v>6.01</v>
-      </c>
-      <c r="D7">
-        <v>6.52</v>
-      </c>
-      <c r="E7">
-        <v>7.2</v>
-      </c>
-      <c r="F7">
-        <v>7.95</v>
-      </c>
-      <c r="G7">
-        <v>8.75</v>
-      </c>
-      <c r="H7">
-        <v>9.64</v>
-      </c>
-      <c r="I7">
-        <v>10.43</v>
-      </c>
-      <c r="J7">
-        <v>11.27</v>
-      </c>
-      <c r="K7">
-        <v>11.96</v>
-      </c>
-      <c r="L7">
-        <v>13.2</v>
-      </c>
-      <c r="M7">
-        <v>14.21</v>
-      </c>
-      <c r="N7">
-        <v>15.25</v>
-      </c>
-      <c r="O7">
-        <v>16.38</v>
-      </c>
-      <c r="P7">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="Q7">
-        <v>18.32</v>
-      </c>
-      <c r="R7">
-        <v>19</v>
-      </c>
-      <c r="S7">
-        <v>19.64</v>
-      </c>
-      <c r="T7">
-        <v>20.149999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.51</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.49</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.44</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.42</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.4</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>0.37</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0.33</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>0.3</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.27</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>0.24</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>0.24</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>0.24</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>0.17</v>
-      </c>
-      <c r="Q8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R8">
-        <v>0.1</v>
-      </c>
-      <c r="S8">
-        <v>0.18</v>
-      </c>
-      <c r="T8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.12</v>
-      </c>
-      <c r="E9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.1</v>
-      </c>
-      <c r="J9">
-        <v>0.08</v>
-      </c>
-      <c r="K9">
-        <v>0.06</v>
-      </c>
-      <c r="L9">
-        <v>0.08</v>
-      </c>
-      <c r="M9">
-        <v>0.08</v>
-      </c>
-      <c r="N9">
-        <v>0.06</v>
-      </c>
-      <c r="O9">
-        <v>0.08</v>
-      </c>
-      <c r="P9">
-        <v>0.14000000000000001</v>
       </c>
       <c r="Q9">
         <v>0.14000000000000001</v>
       </c>
       <c r="R9">
+        <v>0.1</v>
+      </c>
+      <c r="S9">
+        <v>0.18</v>
+      </c>
+      <c r="T9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.12</v>
+      </c>
+      <c r="E10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>0.08</v>
+      </c>
+      <c r="K10">
+        <v>0.06</v>
+      </c>
+      <c r="L10">
+        <v>0.08</v>
+      </c>
+      <c r="M10">
+        <v>0.08</v>
+      </c>
+      <c r="N10">
+        <v>0.06</v>
+      </c>
+      <c r="O10">
+        <v>0.08</v>
+      </c>
+      <c r="P10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R10">
         <v>0.16</v>
       </c>
-      <c r="S9">
+      <c r="S10">
         <v>0.17</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>0.17</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B7:B9)</f>
-        <v>6.28</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:T11" si="0">SUM(C7:C9)</f>
-        <v>6.64</v>
-      </c>
-      <c r="D11">
+    <row r="11" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="19">
+        <f>SUM(B9:B10)</f>
+        <v>0.71</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" ref="C12:T12" si="0">SUM(C9:C10)</f>
+        <v>0.63</v>
+      </c>
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
-        <v>7.08</v>
-      </c>
-      <c r="E11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>7.76</v>
-      </c>
-      <c r="F11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
-        <v>8.49</v>
-      </c>
-      <c r="G11">
+        <v>0.54</v>
+      </c>
+      <c r="G12" s="19">
         <f t="shared" si="0"/>
-        <v>9.26</v>
-      </c>
-      <c r="H11">
+        <v>0.51</v>
+      </c>
+      <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>10.110000000000001</v>
-      </c>
-      <c r="I11">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>10.819999999999999</v>
-      </c>
-      <c r="J11">
+        <v>0.39</v>
+      </c>
+      <c r="J12" s="19">
         <f t="shared" si="0"/>
-        <v>11.65</v>
-      </c>
-      <c r="K11">
+        <v>0.38</v>
+      </c>
+      <c r="K12" s="19">
         <f t="shared" si="0"/>
-        <v>12.290000000000001</v>
-      </c>
-      <c r="L11">
+        <v>0.33</v>
+      </c>
+      <c r="L12" s="19">
         <f t="shared" si="0"/>
-        <v>13.52</v>
-      </c>
-      <c r="M11">
+        <v>0.32</v>
+      </c>
+      <c r="M12" s="19">
         <f t="shared" si="0"/>
-        <v>14.530000000000001</v>
-      </c>
-      <c r="N11">
+        <v>0.32</v>
+      </c>
+      <c r="N12" s="19">
         <f t="shared" si="0"/>
-        <v>15.55</v>
-      </c>
-      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="O12" s="19">
         <f t="shared" si="0"/>
-        <v>16.749999999999996</v>
-      </c>
-      <c r="P11">
+        <v>0.37</v>
+      </c>
+      <c r="P12" s="19">
         <f t="shared" si="0"/>
-        <v>17.730000000000004</v>
-      </c>
-      <c r="Q11">
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="Q12" s="19">
         <f t="shared" si="0"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="R11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R12" s="19">
         <f t="shared" si="0"/>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="S11">
+        <v>0.26</v>
+      </c>
+      <c r="S12" s="19">
         <f t="shared" si="0"/>
-        <v>19.990000000000002</v>
-      </c>
-      <c r="T11">
+        <v>0.35</v>
+      </c>
+      <c r="T12" s="19">
         <f t="shared" si="0"/>
-        <v>20.46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="26"/>
+    </row>
+    <row r="14" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
+    </row>
+    <row r="15" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="24">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="24">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="24">
+        <v>2022</v>
+      </c>
+      <c r="F15" s="24">
+        <v>2023</v>
+      </c>
+      <c r="G15" s="24">
+        <v>2024</v>
+      </c>
+      <c r="H15" s="24">
+        <v>2025</v>
+      </c>
+      <c r="I15" s="24">
+        <v>2026</v>
+      </c>
+      <c r="J15" s="24">
+        <v>2027</v>
+      </c>
+      <c r="K15" s="24">
+        <v>2028</v>
+      </c>
+      <c r="L15" s="24">
+        <v>2029</v>
+      </c>
+      <c r="M15" s="24">
+        <v>2030</v>
+      </c>
+      <c r="N15" s="24">
+        <v>2031</v>
+      </c>
+      <c r="O15" s="24">
+        <v>2032</v>
+      </c>
+      <c r="P15" s="24">
+        <v>2033</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>2034</v>
+      </c>
+      <c r="R15" s="24">
+        <v>2035</v>
+      </c>
+      <c r="S15" s="24">
+        <v>2036</v>
+      </c>
+      <c r="T15" s="24">
+        <v>2037</v>
+      </c>
+      <c r="U15" s="24">
+        <v>2038</v>
+      </c>
+      <c r="V15" s="24">
+        <v>2039</v>
+      </c>
+      <c r="W15" s="24">
+        <v>2040</v>
+      </c>
+      <c r="X15" s="24">
+        <v>2041</v>
+      </c>
+      <c r="Y15" s="24">
+        <v>2042</v>
+      </c>
+      <c r="Z15" s="24">
+        <v>2043</v>
+      </c>
+      <c r="AA15" s="24">
+        <v>2044</v>
+      </c>
+      <c r="AB15" s="24">
+        <v>2045</v>
+      </c>
+      <c r="AC15" s="24">
+        <v>2046</v>
+      </c>
+      <c r="AD15" s="24">
+        <v>2047</v>
+      </c>
+      <c r="AE15" s="24">
+        <v>2048</v>
+      </c>
+      <c r="AF15" s="24">
+        <v>2049</v>
+      </c>
+      <c r="AG15" s="24">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="24">
+        <v>20</v>
+      </c>
+      <c r="C16" s="24">
+        <v>21</v>
+      </c>
+      <c r="D16" s="24">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="19">
-        <f>T7*1000000000000</f>
-        <v>20150000000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="45">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="45">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E16" s="24">
+        <v>23</v>
+      </c>
+      <c r="F16" s="24">
+        <v>24</v>
+      </c>
+      <c r="G16" s="24">
+        <v>25</v>
+      </c>
+      <c r="H16" s="24">
+        <v>26</v>
+      </c>
+      <c r="I16" s="24">
+        <v>27</v>
+      </c>
+      <c r="J16" s="24">
+        <v>28</v>
+      </c>
+      <c r="K16" s="24">
+        <v>29</v>
+      </c>
+      <c r="L16" s="24">
+        <v>30</v>
+      </c>
+      <c r="M16" s="24">
+        <v>31</v>
+      </c>
+      <c r="N16" s="24">
+        <v>32</v>
+      </c>
+      <c r="O16" s="24">
+        <v>33</v>
+      </c>
+      <c r="P16" s="24">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>35</v>
+      </c>
+      <c r="R16" s="24">
+        <v>36</v>
+      </c>
+      <c r="S16" s="24">
+        <v>37</v>
+      </c>
+      <c r="T16" s="24">
+        <v>38</v>
+      </c>
+      <c r="U16" s="24">
+        <v>39</v>
+      </c>
+      <c r="V16" s="24">
+        <v>40</v>
+      </c>
+      <c r="W16" s="24">
+        <v>41</v>
+      </c>
+      <c r="X16" s="24">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="24">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="24">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="24">
+        <v>45</v>
+      </c>
+      <c r="AB16" s="24">
+        <v>46</v>
+      </c>
+      <c r="AC16" s="24">
+        <v>47</v>
+      </c>
+      <c r="AD16" s="24">
+        <v>48</v>
+      </c>
+      <c r="AE16" s="24">
+        <v>49</v>
+      </c>
+      <c r="AF16" s="24">
+        <v>50</v>
+      </c>
+      <c r="AG16" s="24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17">
-        <f>B14*(1+B15)</f>
-        <v>31434000000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="B17" s="19">
+        <f>$B$25*B16^2+$B$26*B16+$B$27</f>
+        <v>20.0154</v>
+      </c>
+      <c r="C17" s="19">
+        <f t="shared" ref="C17:AG17" si="1">$B$25*C16^2+$B$26*C16+$B$27</f>
+        <v>20.634699999999999</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="1"/>
+        <v>21.2348</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
+        <v>21.8157</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>22.377399999999998</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="1"/>
+        <v>22.919899999999998</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="1"/>
+        <v>23.443199999999997</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="1"/>
+        <v>23.947299999999998</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="1"/>
+        <v>24.432199999999998</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="1"/>
+        <v>24.8979</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="1"/>
+        <v>25.3444</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="1"/>
+        <v>25.771699999999999</v>
+      </c>
+      <c r="N17" s="19">
+        <f t="shared" si="1"/>
+        <v>26.1798</v>
+      </c>
+      <c r="O17" s="19">
+        <f t="shared" si="1"/>
+        <v>26.5687</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" si="1"/>
+        <v>26.938399999999994</v>
+      </c>
+      <c r="Q17" s="19">
+        <f t="shared" si="1"/>
+        <v>27.288899999999998</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="1"/>
+        <v>27.620199999999997</v>
+      </c>
+      <c r="S17" s="19">
+        <f t="shared" si="1"/>
+        <v>27.932300000000001</v>
+      </c>
+      <c r="T17" s="19">
+        <f t="shared" si="1"/>
+        <v>28.225199999999994</v>
+      </c>
+      <c r="U17" s="19">
+        <f t="shared" si="1"/>
+        <v>28.498899999999999</v>
+      </c>
+      <c r="V17" s="19">
+        <f t="shared" si="1"/>
+        <v>28.753399999999999</v>
+      </c>
+      <c r="W17" s="19">
+        <f t="shared" si="1"/>
+        <v>28.988699999999994</v>
+      </c>
+      <c r="X17" s="19">
+        <f t="shared" si="1"/>
+        <v>29.204799999999995</v>
+      </c>
+      <c r="Y17" s="19">
+        <f t="shared" si="1"/>
+        <v>29.401699999999998</v>
+      </c>
+      <c r="Z17" s="19">
+        <f t="shared" si="1"/>
+        <v>29.5794</v>
+      </c>
+      <c r="AA17" s="19">
+        <f t="shared" si="1"/>
+        <v>29.737899999999996</v>
+      </c>
+      <c r="AB17" s="19">
+        <f t="shared" si="1"/>
+        <v>29.877199999999998</v>
+      </c>
+      <c r="AC17" s="19">
+        <f t="shared" si="1"/>
+        <v>29.997299999999999</v>
+      </c>
+      <c r="AD17" s="19">
+        <f t="shared" si="1"/>
+        <v>30.098199999999995</v>
+      </c>
+      <c r="AE17" s="19">
+        <f t="shared" si="1"/>
+        <v>30.179899999999996</v>
+      </c>
+      <c r="AF17" s="19">
+        <f t="shared" si="1"/>
+        <v>30.2424</v>
+      </c>
+      <c r="AG17" s="19">
+        <f t="shared" si="1"/>
+        <v>30.285700000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18">
-        <f>B14*(1+B16)</f>
-        <v>34658000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="19">
+        <f>IF($H$25*B16+$H$26&gt;0,$H$25*B16+$H$26,0)</f>
+        <v>8.7099999999999955E-2</v>
+      </c>
+      <c r="C18" s="19">
+        <f t="shared" ref="C18:AG18" si="2">IF($H$25*C16+$H$26&gt;0,$H$25*C16+$H$26,0)</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="2"/>
+        <v>4.5899999999999996E-2</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="2"/>
+        <v>2.5299999999999989E-2</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="2"/>
+        <v>4.699999999999982E-3</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="19">
+        <f>$O$25*B16+$O$26</f>
+        <v>0.11790000000000002</v>
+      </c>
+      <c r="C19" s="19">
+        <f t="shared" ref="C19:AG19" si="3">$O$25*C16+$O$26</f>
+        <v>0.11740000000000002</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11690000000000002</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11640000000000002</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11590000000000002</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11540000000000002</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11490000000000002</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11440000000000002</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11390000000000002</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11340000000000001</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11290000000000001</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11240000000000001</v>
+      </c>
+      <c r="N19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11190000000000001</v>
+      </c>
+      <c r="O19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11140000000000001</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11090000000000001</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11040000000000001</v>
+      </c>
+      <c r="R19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10990000000000001</v>
+      </c>
+      <c r="S19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10940000000000001</v>
+      </c>
+      <c r="T19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10890000000000001</v>
+      </c>
+      <c r="U19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10840000000000001</v>
+      </c>
+      <c r="V19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10790000000000001</v>
+      </c>
+      <c r="W19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10740000000000001</v>
+      </c>
+      <c r="X19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10690000000000001</v>
+      </c>
+      <c r="Y19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10640000000000001</v>
+      </c>
+      <c r="Z19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10590000000000002</v>
+      </c>
+      <c r="AA19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10540000000000002</v>
+      </c>
+      <c r="AB19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10490000000000002</v>
+      </c>
+      <c r="AC19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10440000000000002</v>
+      </c>
+      <c r="AD19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10390000000000002</v>
+      </c>
+      <c r="AE19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10340000000000002</v>
+      </c>
+      <c r="AF19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10290000000000002</v>
+      </c>
+      <c r="AG19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10240000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="26"/>
+    </row>
+    <row r="21" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="19">
+        <f>SUM(B18:B19)</f>
+        <v>0.20499999999999996</v>
+      </c>
+      <c r="C21" s="19">
+        <f t="shared" ref="C21:AG21" si="4">SUM(C18:C19)</f>
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.1628</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.1206</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11540000000000002</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11490000000000002</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11440000000000002</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11390000000000002</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11340000000000001</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11290000000000001</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11240000000000001</v>
+      </c>
+      <c r="N21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11190000000000001</v>
+      </c>
+      <c r="O21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11140000000000001</v>
+      </c>
+      <c r="P21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11090000000000001</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11040000000000001</v>
+      </c>
+      <c r="R21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10990000000000001</v>
+      </c>
+      <c r="S21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10940000000000001</v>
+      </c>
+      <c r="T21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10890000000000001</v>
+      </c>
+      <c r="U21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10840000000000001</v>
+      </c>
+      <c r="V21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10790000000000001</v>
+      </c>
+      <c r="W21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10740000000000001</v>
+      </c>
+      <c r="X21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10690000000000001</v>
+      </c>
+      <c r="Y21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10640000000000001</v>
+      </c>
+      <c r="Z21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10590000000000002</v>
+      </c>
+      <c r="AA21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10540000000000002</v>
+      </c>
+      <c r="AB21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10490000000000002</v>
+      </c>
+      <c r="AC21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000002</v>
+      </c>
+      <c r="AD21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10390000000000002</v>
+      </c>
+      <c r="AE21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10340000000000002</v>
+      </c>
+      <c r="AF21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10290000000000002</v>
+      </c>
+      <c r="AG21" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10240000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="23" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+    </row>
+    <row r="24" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="19">
+        <v>-9.5999999999999992E-3</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="19">
+        <v>-2.06E-2</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" s="19">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="19">
-        <f>SUM(T8:T9)*1000000000000</f>
-        <v>310000000000.00006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="45">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="45">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24">
-        <f>B21*(1+B22)</f>
-        <v>483600000000.00012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25">
-        <f>B21*(1+B23)</f>
-        <v>533200000000.00012</v>
+      <c r="B26" s="19">
+        <v>1.0128999999999999</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="O26" s="19">
+        <v>0.12790000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="19">
+        <v>3.5973999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="49" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="51" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="52" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="53" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="54" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="56" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="57" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="58" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="60" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="63" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="64" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="65" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="66" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="67" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="69" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="19">
+        <v>23.4</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="19">
+        <v>30.6</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -15605,6 +20371,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D91C997E-784C-4C49-AE0A-2B5AEC061DA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15616,7 +20383,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15629,13 +20396,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -15720,7 +20487,7 @@
         <v>310000000000</v>
       </c>
       <c r="D3" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E3" s="13">
@@ -15771,7 +20538,7 @@
         <v>310000000000</v>
       </c>
       <c r="D4" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E4" s="13">
@@ -15822,7 +20589,7 @@
         <v>310000000000</v>
       </c>
       <c r="D5" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E5" s="13">
@@ -15873,7 +20640,7 @@
         <v>310000000000</v>
       </c>
       <c r="D6" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E6" s="13">
@@ -15924,7 +20691,7 @@
         <v>310000000000</v>
       </c>
       <c r="D7" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E7" s="13">
@@ -15975,7 +20742,7 @@
         <v>310000000000</v>
       </c>
       <c r="D8" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E8" s="13">
@@ -16026,7 +20793,7 @@
         <v>310000000000</v>
       </c>
       <c r="D9" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E9" s="13">
@@ -16077,7 +20844,7 @@
         <v>310000000000</v>
       </c>
       <c r="D10" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E10" s="13">
@@ -16128,7 +20895,7 @@
         <v>310000000000</v>
       </c>
       <c r="D11" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E11" s="13">
@@ -16179,7 +20946,7 @@
         <v>310000000000</v>
       </c>
       <c r="D12" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E12" s="13">
@@ -16230,7 +20997,7 @@
         <v>310000000000</v>
       </c>
       <c r="D13" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E13" s="13">
@@ -16281,7 +21048,7 @@
         <v>310000000000</v>
       </c>
       <c r="D14" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
@@ -16332,7 +21099,7 @@
         <v>310000000000</v>
       </c>
       <c r="D15" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E15" s="13">
@@ -16383,7 +21150,7 @@
         <v>310000000000</v>
       </c>
       <c r="D16" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E16" s="13">
@@ -16434,7 +21201,7 @@
         <v>310000000000</v>
       </c>
       <c r="D17" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E17" s="13">
@@ -16485,7 +21252,7 @@
         <v>310000000000</v>
       </c>
       <c r="D18" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E18" s="13">
@@ -16536,7 +21303,7 @@
         <v>310000000000</v>
       </c>
       <c r="D19" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E19" s="13">
@@ -16587,7 +21354,7 @@
         <v>310000000000</v>
       </c>
       <c r="D20" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E20" s="13">
@@ -16638,7 +21405,7 @@
         <v>310000000000</v>
       </c>
       <c r="D21" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E21" s="13">
@@ -16689,7 +21456,7 @@
         <v>310000000000</v>
       </c>
       <c r="D22" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E22" s="13">
@@ -16740,7 +21507,7 @@
         <v>310000000000</v>
       </c>
       <c r="D23" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E23" s="13">
@@ -16791,7 +21558,7 @@
         <v>310000000000</v>
       </c>
       <c r="D24" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E24" s="13">
@@ -16842,7 +21609,7 @@
         <v>310000000000</v>
       </c>
       <c r="D25" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E25" s="13">
@@ -16893,7 +21660,7 @@
         <v>310000000000</v>
       </c>
       <c r="D26" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E26" s="13">
@@ -16944,7 +21711,7 @@
         <v>310000000000</v>
       </c>
       <c r="D27" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E27" s="13">
@@ -16995,7 +21762,7 @@
         <v>310000000000</v>
       </c>
       <c r="D28" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E28" s="13">
@@ -17046,7 +21813,7 @@
         <v>310000000000</v>
       </c>
       <c r="D29" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E29" s="13">
@@ -17097,7 +21864,7 @@
         <v>310000000000</v>
       </c>
       <c r="D30" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E30" s="13">
@@ -17148,7 +21915,7 @@
         <v>310000000000</v>
       </c>
       <c r="D31" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E31" s="13">
@@ -17199,7 +21966,7 @@
         <v>310000000000</v>
       </c>
       <c r="D32" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E32" s="13">
@@ -17250,7 +22017,7 @@
         <v>310000000000</v>
       </c>
       <c r="D33" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E33" s="13">
@@ -17301,7 +22068,7 @@
         <v>310000000000</v>
       </c>
       <c r="D34" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E34" s="13">
@@ -17352,7 +22119,7 @@
         <v>310000000000</v>
       </c>
       <c r="D35" s="13">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E35" s="13">
@@ -23780,13 +28547,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -23869,8 +28636,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D3" s="47">
-        <f>About!$C$46</f>
+      <c r="D3" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E3" s="13">
@@ -23920,8 +28687,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D4" s="47">
-        <f>About!$C$46</f>
+      <c r="D4" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E4" s="13">
@@ -23971,8 +28738,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D5" s="47">
-        <f>About!$C$46</f>
+      <c r="D5" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E5" s="13">
@@ -24022,8 +28789,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D6" s="47">
-        <f>About!$C$46</f>
+      <c r="D6" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E6" s="13">
@@ -24073,8 +28840,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D7" s="47">
-        <f>About!$C$46</f>
+      <c r="D7" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E7" s="13">
@@ -24124,8 +28891,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D8" s="47">
-        <f>About!$C$46</f>
+      <c r="D8" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E8" s="13">
@@ -24175,8 +28942,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D9" s="47">
-        <f>About!$C$46</f>
+      <c r="D9" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E9" s="13">
@@ -24226,8 +28993,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D10" s="47">
-        <f>About!$C$46</f>
+      <c r="D10" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E10" s="13">
@@ -24277,8 +29044,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D11" s="47">
-        <f>About!$C$46</f>
+      <c r="D11" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E11" s="13">
@@ -24328,8 +29095,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D12" s="47">
-        <f>About!$C$46</f>
+      <c r="D12" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E12" s="13">
@@ -24379,8 +29146,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D13" s="47">
-        <f>About!$C$46</f>
+      <c r="D13" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E13" s="13">
@@ -24430,8 +29197,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D14" s="47">
-        <f>About!$C$46</f>
+      <c r="D14" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
@@ -24481,8 +29248,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D15" s="47">
-        <f>About!$C$46</f>
+      <c r="D15" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E15" s="13">
@@ -24532,8 +29299,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D16" s="47">
-        <f>About!$C$46</f>
+      <c r="D16" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E16" s="13">
@@ -24583,8 +29350,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D17" s="47">
-        <f>About!$C$46</f>
+      <c r="D17" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E17" s="13">
@@ -24634,8 +29401,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D18" s="47">
-        <f>About!$C$46</f>
+      <c r="D18" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E18" s="13">
@@ -24685,8 +29452,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D19" s="47">
-        <f>About!$C$46</f>
+      <c r="D19" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E19" s="13">
@@ -24736,8 +29503,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D20" s="47">
-        <f>About!$C$46</f>
+      <c r="D20" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E20" s="13">
@@ -24787,8 +29554,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D21" s="47">
-        <f>About!$C$46</f>
+      <c r="D21" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E21" s="13">
@@ -24838,8 +29605,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D22" s="47">
-        <f>About!$C$46</f>
+      <c r="D22" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E22" s="13">
@@ -24889,8 +29656,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D23" s="47">
-        <f>About!$C$46</f>
+      <c r="D23" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E23" s="13">
@@ -24940,8 +29707,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D24" s="47">
-        <f>About!$C$46</f>
+      <c r="D24" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E24" s="13">
@@ -24991,8 +29758,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D25" s="47">
-        <f>About!$C$46</f>
+      <c r="D25" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E25" s="13">
@@ -25042,8 +29809,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D26" s="47">
-        <f>About!$C$46</f>
+      <c r="D26" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E26" s="13">
@@ -25093,8 +29860,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D27" s="47">
-        <f>About!$C$46</f>
+      <c r="D27" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E27" s="13">
@@ -25144,8 +29911,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D28" s="47">
-        <f>About!$C$46</f>
+      <c r="D28" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E28" s="13">
@@ -25195,8 +29962,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D29" s="47">
-        <f>About!$C$46</f>
+      <c r="D29" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E29" s="13">
@@ -25246,8 +30013,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D30" s="47">
-        <f>About!$C$46</f>
+      <c r="D30" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E30" s="13">
@@ -25297,8 +30064,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D31" s="47">
-        <f>About!$C$46</f>
+      <c r="D31" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E31" s="13">
@@ -25348,8 +30115,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D32" s="47">
-        <f>About!$C$46</f>
+      <c r="D32" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E32" s="13">
@@ -25399,8 +30166,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D33" s="47">
-        <f>About!$C$46</f>
+      <c r="D33" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E33" s="13">
@@ -25450,8 +30217,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D34" s="47">
-        <f>About!$C$46</f>
+      <c r="D34" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E34" s="13">
@@ -25501,8 +30268,8 @@
         <f>'CARB 2020_CH4'!$T$26</f>
         <v>1560000000000</v>
       </c>
-      <c r="D35" s="47">
-        <f>About!$C$46</f>
+      <c r="D35" s="46">
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E35" s="13">
@@ -31931,13 +36698,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -32020,7 +36787,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E3" s="13">
@@ -32070,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E4" s="13">
@@ -32120,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E5" s="13">
@@ -32170,7 +36937,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E6" s="13">
@@ -32220,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E7" s="13">
@@ -32270,7 +37037,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E8" s="13">
@@ -32320,7 +37087,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E9" s="13">
@@ -32370,7 +37137,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E10" s="13">
@@ -32420,7 +37187,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E11" s="13">
@@ -32470,7 +37237,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E12" s="13">
@@ -32520,7 +37287,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E13" s="13">
@@ -32570,7 +37337,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
@@ -32620,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E15" s="13">
@@ -32670,7 +37437,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E16" s="13">
@@ -32720,7 +37487,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E17" s="13">
@@ -32770,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E18" s="13">
@@ -32820,7 +37587,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E19" s="13">
@@ -32870,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E20" s="13">
@@ -32920,7 +37687,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E21" s="13">
@@ -32970,7 +37737,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E22" s="13">
@@ -33020,7 +37787,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E23" s="13">
@@ -33070,7 +37837,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E24" s="13">
@@ -33120,7 +37887,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E25" s="13">
@@ -33170,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E26" s="13">
@@ -33220,7 +37987,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E27" s="13">
@@ -33270,7 +38037,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E28" s="13">
@@ -33320,7 +38087,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E29" s="13">
@@ -33370,7 +38137,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E30" s="13">
@@ -33420,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E31" s="13">
@@ -33470,7 +38237,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E32" s="13">
@@ -33520,7 +38287,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E33" s="13">
@@ -33570,7 +38337,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E34" s="13">
@@ -33620,7 +38387,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="7">
-        <f>About!$C$46</f>
+        <f>About!$C$52</f>
         <v>0</v>
       </c>
       <c r="E35" s="13">

--- a/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
+++ b/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\US States\eps-california\InputData\indst\BPEiC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F97DB-5F49-4E54-97FA-DF2F134108A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA947255-83A2-41CB-81AE-1E51A50A75B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3270" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,13 +425,13 @@
     <t>F-gases are estimated based on historic CARB data and E3's reference scenario projections for 2030 and 2050.</t>
   </si>
   <si>
-    <t>E3 Estimates for Trend Calibration</t>
-  </si>
-  <si>
     <t>Trend Estimation and Calibration</t>
   </si>
   <si>
     <t>Non-ODS Total</t>
+  </si>
+  <si>
+    <t>E3 Estimates for ODS Trend Calibration</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -742,6 +741,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1054,11 +1054,11 @@
                 <c:pt idx="18">
                   <c:v>20.149999999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.4</c:v>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>23.287599999999998</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>30.6</c:v>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>30.497600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="31" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
-      <c r="B31" s="56"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="35" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="56" t="s">
         <v>106</v>
       </c>
       <c r="C35" s="17"/>
@@ -6455,7 +6455,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6562,7 +6562,7 @@
         <f>About!$C$52</f>
         <v>0</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="57">
         <f>'CARB 2020_F-gases'!T8*1000000000000</f>
         <v>20150000000000</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="57">
         <f>'CARB 2020_F-gases'!T12*1000000000000</f>
         <v>310000000000.00006</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="E4" s="7">
         <f t="array" ref="E4:E35">TRANSPOSE('CARB 2020_F-gases'!B17:AG17)*1000000000000</f>
-        <v>20015400000000</v>
+        <v>19972900000000</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>20634700000000</v>
+        <v>20587600000000</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>21234800000000</v>
+        <v>21182900000000</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>21815700000000</v>
+        <v>21758800000000</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>22377399999999.996</v>
+        <v>22315300000000</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="7">
-        <v>22919900000000</v>
+        <v>22852400000000</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>23443199999999.996</v>
+        <v>23370100000000</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>23947300000000</v>
+        <v>23868399999999.996</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>24432200000000</v>
+        <v>24347300000000</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>24897900000000</v>
+        <v>24806800000000.004</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>25344400000000</v>
+        <v>25246900000000</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>25771700000000</v>
+        <v>25667600000000</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>26179800000000</v>
+        <v>26068900000000</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>26568700000000</v>
+        <v>26450800000000</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>26938399999999.996</v>
+        <v>26813300000000</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>27288900000000</v>
+        <v>27156399999999.996</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>27620199999999.996</v>
+        <v>27480099999999.996</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>27932300000000</v>
+        <v>27784399999999.996</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>28225199999999.992</v>
+        <v>28069300000000</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>28498900000000</v>
+        <v>28334799999999.996</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>28753400000000</v>
+        <v>28580899999999.996</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>28988699999999.996</v>
+        <v>28807600000000</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="7">
-        <v>29204799999999.996</v>
+        <v>29014900000000</v>
       </c>
       <c r="F26" s="7">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="7">
-        <v>29401700000000</v>
+        <v>29202800000000</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>29579400000000</v>
+        <v>29371300000000</v>
       </c>
       <c r="F28" s="7">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="7">
-        <v>29737899999999.996</v>
+        <v>29520400000000</v>
       </c>
       <c r="F29" s="7">
         <v>0</v>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>29877200000000</v>
+        <v>29650100000000</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="7">
-        <v>29997300000000</v>
+        <v>29760400000000</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="7">
-        <v>30098199999999.996</v>
+        <v>29851300000000</v>
       </c>
       <c r="F32" s="7">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="7">
-        <v>30179899999999.996</v>
+        <v>29922800000000</v>
       </c>
       <c r="F33" s="7">
         <v>0</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="7">
-        <v>30242400000000</v>
+        <v>29974900000000</v>
       </c>
       <c r="F34" s="7">
         <v>0</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="7">
-        <v>30285700000000.004</v>
+        <v>30007599999999.996</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
@@ -18950,7 +18950,9 @@
   </sheetPr>
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18959,7 +18961,7 @@
     <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.6640625" customWidth="1"/>
+    <col min="21" max="22" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
@@ -18978,32 +18980,32 @@
       </c>
     </row>
     <row r="5" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="V5" s="54"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" s="53"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
@@ -19204,13 +19206,13 @@
       <c r="T8">
         <v>20.149999999999999</v>
       </c>
-      <c r="U8" s="51">
-        <f>B70</f>
-        <v>23.4</v>
-      </c>
-      <c r="V8" s="51">
-        <f>B71</f>
-        <v>30.6</v>
+      <c r="U8" s="58">
+        <f>B70-SUM(M18:M19)</f>
+        <v>23.287599999999998</v>
+      </c>
+      <c r="V8" s="58">
+        <f>B71-SUM(AG18:AG19)</f>
+        <v>30.497600000000002</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.45">
@@ -19340,7 +19342,7 @@
     <row r="11" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="19">
         <f>SUM(B9:B10)</f>
@@ -19423,41 +19425,41 @@
       <c r="A13" s="26"/>
     </row>
     <row r="14" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
     </row>
     <row r="15" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="25" t="s">
@@ -19667,131 +19669,131 @@
       </c>
       <c r="B17" s="19">
         <f>$B$25*B16^2+$B$26*B16+$B$27</f>
-        <v>20.0154</v>
+        <v>19.972899999999999</v>
       </c>
       <c r="C17" s="19">
         <f t="shared" ref="C17:AG17" si="1">$B$25*C16^2+$B$26*C16+$B$27</f>
-        <v>20.634699999999999</v>
+        <v>20.587600000000002</v>
       </c>
       <c r="D17" s="19">
         <f t="shared" si="1"/>
-        <v>21.2348</v>
+        <v>21.1829</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>21.8157</v>
+        <v>21.758800000000001</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="1"/>
-        <v>22.377399999999998</v>
+        <v>22.315300000000001</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" si="1"/>
-        <v>22.919899999999998</v>
+        <v>22.852399999999999</v>
       </c>
       <c r="H17" s="19">
         <f t="shared" si="1"/>
-        <v>23.443199999999997</v>
+        <v>23.370100000000001</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" si="1"/>
-        <v>23.947299999999998</v>
+        <v>23.868399999999998</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="1"/>
-        <v>24.432199999999998</v>
+        <v>24.347300000000001</v>
       </c>
       <c r="K17" s="19">
         <f t="shared" si="1"/>
-        <v>24.8979</v>
+        <v>24.806800000000003</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="1"/>
-        <v>25.3444</v>
+        <v>25.2469</v>
       </c>
       <c r="M17" s="19">
         <f t="shared" si="1"/>
-        <v>25.771699999999999</v>
+        <v>25.6676</v>
       </c>
       <c r="N17" s="19">
         <f t="shared" si="1"/>
-        <v>26.1798</v>
+        <v>26.068899999999999</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="1"/>
-        <v>26.5687</v>
+        <v>26.450800000000001</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="1"/>
-        <v>26.938399999999994</v>
+        <v>26.813299999999998</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="1"/>
-        <v>27.288899999999998</v>
+        <v>27.156399999999998</v>
       </c>
       <c r="R17" s="19">
         <f t="shared" si="1"/>
-        <v>27.620199999999997</v>
+        <v>27.480099999999997</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="1"/>
-        <v>27.932300000000001</v>
+        <v>27.784399999999998</v>
       </c>
       <c r="T17" s="19">
         <f t="shared" si="1"/>
-        <v>28.225199999999994</v>
+        <v>28.069299999999998</v>
       </c>
       <c r="U17" s="19">
         <f t="shared" si="1"/>
-        <v>28.498899999999999</v>
+        <v>28.334799999999994</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="1"/>
-        <v>28.753399999999999</v>
+        <v>28.580899999999996</v>
       </c>
       <c r="W17" s="19">
         <f t="shared" si="1"/>
-        <v>28.988699999999994</v>
+        <v>28.807600000000001</v>
       </c>
       <c r="X17" s="19">
         <f t="shared" si="1"/>
-        <v>29.204799999999995</v>
+        <v>29.014900000000001</v>
       </c>
       <c r="Y17" s="19">
         <f t="shared" si="1"/>
-        <v>29.401699999999998</v>
+        <v>29.2028</v>
       </c>
       <c r="Z17" s="19">
         <f t="shared" si="1"/>
-        <v>29.5794</v>
+        <v>29.371300000000002</v>
       </c>
       <c r="AA17" s="19">
         <f t="shared" si="1"/>
-        <v>29.737899999999996</v>
+        <v>29.520399999999999</v>
       </c>
       <c r="AB17" s="19">
         <f t="shared" si="1"/>
-        <v>29.877199999999998</v>
+        <v>29.650099999999998</v>
       </c>
       <c r="AC17" s="19">
         <f t="shared" si="1"/>
-        <v>29.997299999999999</v>
+        <v>29.760400000000001</v>
       </c>
       <c r="AD17" s="19">
         <f t="shared" si="1"/>
-        <v>30.098199999999995</v>
+        <v>29.851299999999998</v>
       </c>
       <c r="AE17" s="19">
         <f t="shared" si="1"/>
-        <v>30.179899999999996</v>
+        <v>29.922799999999999</v>
       </c>
       <c r="AF17" s="19">
         <f t="shared" si="1"/>
-        <v>30.2424</v>
+        <v>29.974899999999998</v>
       </c>
       <c r="AG17" s="19">
         <f t="shared" si="1"/>
-        <v>30.285700000000002</v>
+        <v>30.007599999999996</v>
       </c>
     </row>
     <row r="18" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -20065,7 +20067,7 @@
     </row>
     <row r="21" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="19">
         <f>SUM(B18:B19)</f>
@@ -20200,41 +20202,41 @@
       <c r="A22" s="26"/>
     </row>
     <row r="23" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="A23" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
     </row>
     <row r="24" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="26" t="s">
@@ -20252,7 +20254,7 @@
         <v>97</v>
       </c>
       <c r="B25" s="19">
-        <v>-9.5999999999999992E-3</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>100</v>
@@ -20272,7 +20274,7 @@
         <v>98</v>
       </c>
       <c r="B26" s="19">
-        <v>1.0128999999999999</v>
+        <v>1.0124</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>99</v>
@@ -20292,7 +20294,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="19">
-        <v>3.5973999999999999</v>
+        <v>3.6049000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45"/>

--- a/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
+++ b/InputData/indst/BPEiC/BAU Process Emis in CO2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\US States\eps-california\InputData\indst\BPEiC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA947255-83A2-41CB-81AE-1E51A50A75B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6470A5C-5079-4547-BBFA-5D82E1013024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3270" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
   <si>
     <t>BPEiC BAU Process Emissions in CO2e</t>
   </si>
@@ -386,18 +386,6 @@
     <t>Future Year Projections</t>
   </si>
   <si>
-    <t>Leading Coefficient</t>
-  </si>
-  <si>
-    <t>Second Coefficient</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Coefficient</t>
-  </si>
-  <si>
     <t>ODS Trend Estimation</t>
   </si>
   <si>
@@ -432,6 +420,15 @@
   </si>
   <si>
     <t>E3 Estimates for ODS Trend Calibration</t>
+  </si>
+  <si>
+    <t>Second Order Coefficient</t>
+  </si>
+  <si>
+    <t>First Order Coefficient</t>
+  </si>
+  <si>
+    <t>Zero Order Coefficient</t>
   </si>
 </sst>
 </file>
@@ -5134,7 +5131,7 @@
     <row r="32" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -5172,7 +5169,7 @@
     <row r="34" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -5191,7 +5188,7 @@
     <row r="35" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="B35" s="56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -5210,7 +5207,7 @@
     <row r="36" spans="1:15" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="17"/>
       <c r="B36" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -5445,7 +5442,7 @@
     </row>
     <row r="50" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -18950,9 +18947,7 @@
   </sheetPr>
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19003,7 +18998,7 @@
       <c r="S5" s="51"/>
       <c r="T5" s="51"/>
       <c r="U5" s="54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V5" s="53"/>
     </row>
@@ -19342,7 +19337,7 @@
     <row r="11" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B12" s="19">
         <f>SUM(B9:B10)</f>
@@ -20067,7 +20062,7 @@
     </row>
     <row r="21" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B21" s="19">
         <f>SUM(B18:B19)</f>
@@ -20203,7 +20198,7 @@
     </row>
     <row r="23" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -20240,30 +20235,30 @@
     </row>
     <row r="24" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="26" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B25" s="19">
         <v>-9.7000000000000003E-3</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H25" s="19">
         <v>-2.06E-2</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O25" s="19">
         <v>-5.0000000000000001E-4</v>
@@ -20271,19 +20266,19 @@
     </row>
     <row r="26" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="26" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B26" s="19">
         <v>1.0124</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H26" s="19">
         <v>0.49909999999999999</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="O26" s="19">
         <v>0.12790000000000001</v>
@@ -20291,7 +20286,7 @@
     </row>
     <row r="27" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="26" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B27" s="19">
         <v>3.6049000000000002</v>
@@ -20316,7 +20311,7 @@
     <row r="45" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
